--- a/excel/fiche_de_pointagejuin2024NonValide.xlsx
+++ b/excel/fiche_de_pointagejuin2024NonValide.xlsx
@@ -2351,7 +2351,7 @@
       </c>
       <c r="AC20" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD20" s="35" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AC21" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD21" s="35" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="AC22" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD22" s="35" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="AC23" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD23" s="35" t="inlineStr">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="AC24" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD24" s="35" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="AC25" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD25" s="35" t="inlineStr">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="AC26" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD26" s="35" t="inlineStr">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="AC27" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD27" s="35" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="AC28" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD28" s="35" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="AC29" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD29" s="35" t="inlineStr">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="AC30" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD30" s="35" t="inlineStr">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="AC31" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD31" s="35" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="AC32" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD32" s="35" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="AC33" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD33" s="35" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="AC34" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD34" s="35" t="inlineStr">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="AC35" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD35" s="35" t="inlineStr">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="AC36" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD36" s="35" t="inlineStr">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="AC37" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD37" s="35" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="AC38" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD38" s="35" t="inlineStr">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="AC39" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD39" s="35" t="inlineStr">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="AC40" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD40" s="35" t="inlineStr">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="AC41" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD41" s="35" t="inlineStr">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="AC42" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD42" s="35" t="inlineStr">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="AC43" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD43" s="35" t="inlineStr">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="AC44" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD44" s="35" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="AC45" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD45" s="35" t="inlineStr">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="AC46" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD46" s="35" t="inlineStr">
@@ -7778,7 +7778,7 @@
       </c>
       <c r="AC47" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD47" s="35" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="AC48" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD48" s="35" t="inlineStr">
@@ -8180,7 +8180,7 @@
       </c>
       <c r="AC49" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD49" s="35" t="inlineStr">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="AC50" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD50" s="35" t="inlineStr">
@@ -8582,7 +8582,7 @@
       </c>
       <c r="AC51" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD51" s="35" t="inlineStr">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="AC52" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD52" s="35" t="inlineStr">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="AC53" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD53" s="35" t="inlineStr">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="AC54" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD54" s="35" t="inlineStr">
@@ -9386,7 +9386,7 @@
       </c>
       <c r="AC55" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD55" s="35" t="inlineStr">
@@ -9587,7 +9587,7 @@
       </c>
       <c r="AC56" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD56" s="35" t="inlineStr">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="AC57" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD57" s="35" t="inlineStr">
@@ -9989,7 +9989,7 @@
       </c>
       <c r="AC58" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD58" s="35" t="inlineStr">
@@ -10190,7 +10190,7 @@
       </c>
       <c r="AC59" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD59" s="35" t="inlineStr">
@@ -10391,7 +10391,7 @@
       </c>
       <c r="AC60" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD60" s="35" t="inlineStr">
@@ -10592,7 +10592,7 @@
       </c>
       <c r="AC61" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD61" s="35" t="inlineStr">
@@ -10789,7 +10789,7 @@
       </c>
       <c r="AC62" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD62" s="35" t="inlineStr">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="AC63" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD63" s="35" t="inlineStr">
@@ -11195,7 +11195,7 @@
       </c>
       <c r="AC64" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD64" s="35" t="inlineStr">
@@ -11400,7 +11400,7 @@
       </c>
       <c r="AC65" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD65" s="35" t="inlineStr">
@@ -11605,7 +11605,7 @@
       </c>
       <c r="AC66" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD66" s="35" t="inlineStr">
@@ -11810,7 +11810,7 @@
       </c>
       <c r="AC67" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD67" s="35" t="inlineStr">
@@ -12015,7 +12015,7 @@
       </c>
       <c r="AC68" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD68" s="35" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="AC69" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD69" s="35" t="inlineStr">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="AC70" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD70" s="35" t="inlineStr">
@@ -12630,7 +12630,7 @@
       </c>
       <c r="AC71" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD71" s="35" t="inlineStr">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="AC72" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD72" s="35" t="inlineStr">
@@ -13040,7 +13040,7 @@
       </c>
       <c r="AC73" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD73" s="35" t="inlineStr">
@@ -13248,7 +13248,7 @@
       </c>
       <c r="AC74" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD74" s="35" t="inlineStr">
@@ -13456,7 +13456,7 @@
       </c>
       <c r="AC75" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD75" s="35" t="inlineStr">
@@ -13661,7 +13661,7 @@
       </c>
       <c r="AC76" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD76" s="35" t="inlineStr">
@@ -13869,7 +13869,7 @@
       </c>
       <c r="AC77" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD77" s="35" t="inlineStr">
@@ -14077,7 +14077,7 @@
       </c>
       <c r="AC78" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD78" s="35" t="inlineStr">
@@ -14285,7 +14285,7 @@
       </c>
       <c r="AC79" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD79" s="35" t="inlineStr">
@@ -14493,7 +14493,7 @@
       </c>
       <c r="AC80" s="35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t> </t>
         </is>
       </c>
       <c r="AD80" s="35" t="inlineStr">
